--- a/It201819/DEtailed Calculation/harendra kumar.xlsx
+++ b/It201819/DEtailed Calculation/harendra kumar.xlsx
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,9 +1406,6 @@
       <c r="F38" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G38">
-        <v>5000</v>
-      </c>
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.25">
@@ -1416,7 +1413,7 @@
         <v>36</v>
       </c>
       <c r="G39">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="H39" s="23"/>
     </row>
@@ -1447,11 +1444,11 @@
       </c>
       <c r="G43" s="2">
         <f>SUM(G33:G40,H41,G42)</f>
-        <v>130169</v>
+        <v>150169</v>
       </c>
       <c r="H43" s="18">
         <f>IF(G43&gt;150000,150000,G43)</f>
-        <v>130169</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.25">
@@ -1532,7 +1529,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="21">
         <f>SUM(H43,H45,H49,H50,H51,H52)</f>
-        <v>180169</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="54" spans="6:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1538,7 @@
       </c>
       <c r="H54">
         <f>H31-H53</f>
-        <v>558557</v>
+        <v>538726</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.25">
@@ -1550,7 +1547,7 @@
       </c>
       <c r="G55">
         <f>IF(G56&gt;=12500,(H54-500000)*0.2,0)</f>
-        <v>11711.400000000001</v>
+        <v>7745.2000000000007</v>
       </c>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.25">
@@ -1575,18 +1572,18 @@
       <c r="F58" s="12"/>
       <c r="G58">
         <f>SUM(G55:G56)-G57</f>
-        <v>24211.4</v>
+        <v>20245.2</v>
       </c>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59">
         <f>IF(G58&lt;0,0,ROUND(G58,1))</f>
-        <v>24211.4</v>
+        <v>20245.2</v>
       </c>
       <c r="H59" s="16">
         <f>IF(ROUND(G59,-1)&lt;G59,ROUND(G59,-1)+10,ROUND(G59,-1))</f>
-        <v>24220</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="60" spans="6:8" x14ac:dyDescent="0.25">
@@ -1601,7 +1598,7 @@
     <row r="61" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="2">
         <f>H59-H60</f>
-        <v>9220</v>
+        <v>5250</v>
       </c>
     </row>
   </sheetData>
